--- a/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
+++ b/REyeker-DataAnalyses-Python/results/data_of_all.xlsx
@@ -2840,7 +2840,7 @@
         <v>15</v>
       </c>
       <c r="G91" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>17</v>
       </c>
       <c r="G121" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H121" t="b">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>18</v>
       </c>
       <c r="G144" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H144" t="b">
         <v>0</v>
@@ -5102,7 +5102,7 @@
         <v>12</v>
       </c>
       <c r="G178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H178" t="b">
         <v>0</v>
@@ -8560,7 +8560,7 @@
         <v>18</v>
       </c>
       <c r="G311" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H311" t="b">
         <v>0</v>
@@ -9288,7 +9288,7 @@
         <v>12</v>
       </c>
       <c r="G339" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H339" t="b">
         <v>0</v>
@@ -9392,7 +9392,7 @@
         <v>12</v>
       </c>
       <c r="G343" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H343" t="b">
         <v>0</v>
@@ -9444,7 +9444,7 @@
         <v>12</v>
       </c>
       <c r="G345" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H345" t="b">
         <v>0</v>
@@ -9626,7 +9626,7 @@
         <v>12</v>
       </c>
       <c r="G352" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H352" t="b">
         <v>0</v>
@@ -9782,7 +9782,7 @@
         <v>12</v>
       </c>
       <c r="G358" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H358" t="b">
         <v>0</v>
@@ -11238,7 +11238,7 @@
         <v>14</v>
       </c>
       <c r="G414" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H414" t="b">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>17</v>
       </c>
       <c r="G445" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H445" t="b">
         <v>0</v>
@@ -12876,7 +12876,7 @@
         <v>18</v>
       </c>
       <c r="G477" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H477" t="b">
         <v>0</v>
@@ -14306,7 +14306,7 @@
         <v>13</v>
       </c>
       <c r="G532" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H532" t="b">
         <v>0</v>
@@ -14696,7 +14696,7 @@
         <v>13</v>
       </c>
       <c r="G547" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H547" t="b">
         <v>0</v>
@@ -17486,16 +17486,16 @@
         <v>2</v>
       </c>
       <c r="J2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2">
-        <v>0.1538461538461539</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L2">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="M2">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -17524,19 +17524,19 @@
         <v>126</v>
       </c>
       <c r="I3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.5625</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="L3">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M3">
-        <v>158</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -17565,19 +17565,19 @@
         <v>84</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K4">
-        <v>0.32</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L4">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="M4">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -17594,16 +17594,16 @@
         <v>17</v>
       </c>
       <c r="E5">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5">
-        <v>0.6071428571428571</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="G5">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="I5">
         <v>15</v>
@@ -17632,19 +17632,19 @@
         <v>33</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F6">
-        <v>0.8888888888888888</v>
+        <v>0.88</v>
       </c>
       <c r="G6">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="H6">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I6">
         <v>26</v>
@@ -17691,13 +17691,13 @@
         <v>18</v>
       </c>
       <c r="J7">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K7">
-        <v>0.6923076923076923</v>
+        <v>0.75</v>
       </c>
       <c r="L7">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="M7">
         <v>101</v>
@@ -17717,16 +17717,16 @@
         <v>12</v>
       </c>
       <c r="E8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="H8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="I8">
         <v>17</v>
@@ -17764,25 +17764,25 @@
         <v>0.5357142857142857</v>
       </c>
       <c r="G9">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H9">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.88</v>
       </c>
       <c r="L9">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="M9">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -17799,16 +17799,16 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
-        <v>0.4285714285714285</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="G10">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="H10">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I10">
         <v>6</v>
@@ -17893,19 +17893,19 @@
         <v>220</v>
       </c>
       <c r="I12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K12">
-        <v>0.7272727272727273</v>
+        <v>0.7</v>
       </c>
       <c r="L12">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M12">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -17937,16 +17937,16 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K13">
-        <v>0.2307692307692308</v>
+        <v>0.25</v>
       </c>
       <c r="L13">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="M13">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -17963,16 +17963,16 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>0.1875</v>
+        <v>0.2</v>
       </c>
       <c r="G14">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -18004,16 +18004,16 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15">
-        <v>0.2857142857142857</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="G15">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="H15">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I15">
         <v>5</v>
@@ -18051,25 +18051,25 @@
         <v>0.5384615384615384</v>
       </c>
       <c r="G16">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="H16">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I16">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.7857142857142857</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="L16">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="M16">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -18086,16 +18086,16 @@
         <v>12</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17">
-        <v>0.5</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="G17">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="H17">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I17">
         <v>22</v>
@@ -18124,34 +18124,34 @@
         <v>34</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F18">
-        <v>0.543046357615894</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="G18">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="H18">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I18">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J18">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="K18">
-        <v>0.6052631578947368</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="L18">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M18">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -18168,28 +18168,28 @@
         <v>90</v>
       </c>
       <c r="E19">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F19">
-        <v>0.5806451612903226</v>
+        <v>0.5960264900662252</v>
       </c>
       <c r="G19">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H19">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I19">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="J19">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K19">
-        <v>0.66875</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L19">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M19">
         <v>124</v>
@@ -18206,31 +18206,31 @@
         <v>32</v>
       </c>
       <c r="D20">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E20">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="F20">
-        <v>0.5620915032679739</v>
+        <v>0.5723905723905723</v>
       </c>
       <c r="G20">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H20">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I20">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="J20">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="K20">
-        <v>0.6378205128205128</v>
+        <v>0.6466666666666666</v>
       </c>
       <c r="L20">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M20">
         <v>126</v>
